--- a/resources/students.xlsx
+++ b/resources/students.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115705A-8C02-4EBF-8527-B75CC6A0D168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E91F67-D54D-461E-9978-E0E7A4F5AF8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Index</t>
   </si>
@@ -37,9 +37,6 @@
     <t>WIMIC-IM3</t>
   </si>
   <si>
-    <t>Adam Małysz</t>
-  </si>
-  <si>
     <t>Janne Ahonnen</t>
   </si>
   <si>
@@ -53,6 +50,15 @@
   </si>
   <si>
     <t>WIET-E2</t>
+  </si>
+  <si>
+    <t>Grzegorz Krychowiak</t>
+  </si>
+  <si>
+    <t>Krzysztof Piątek</t>
+  </si>
+  <si>
+    <t>Łukasz Fabiański</t>
   </si>
 </sst>
 </file>
@@ -370,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +404,7 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -406,35 +412,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>234567</v>
+        <v>125456</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>356753</v>
+        <v>121456</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>123462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>234567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>356753</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>258624</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
